--- a/rozwiazania/Szymon_Grzebyta/Task4_Line_plot_by_months_diffrent_cities.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task4_Line_plot_by_months_diffrent_cities.xlsx
@@ -491,31 +491,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>149163.3800000002</v>
+        <v>149163.38</v>
       </c>
       <c r="C2" t="n">
-        <v>87587.07999999977</v>
+        <v>87587.08</v>
       </c>
       <c r="D2" t="n">
-        <v>199776.5499999996</v>
+        <v>199776.55</v>
       </c>
       <c r="E2" t="n">
-        <v>143465.5000000001</v>
+        <v>143465.5</v>
       </c>
       <c r="F2" t="n">
-        <v>287613.8599999986</v>
+        <v>287613.86</v>
       </c>
       <c r="G2" t="n">
-        <v>259250.6699999998</v>
+        <v>259250.67</v>
       </c>
       <c r="H2" t="n">
-        <v>114832.5700000001</v>
+        <v>114832.57</v>
       </c>
       <c r="I2" t="n">
-        <v>433103.4499999994</v>
+        <v>433103.45</v>
       </c>
       <c r="J2" t="n">
-        <v>140542.0600000001</v>
+        <v>140542.06</v>
       </c>
     </row>
     <row r="3">
@@ -523,31 +523,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>176566.4499999998</v>
+        <v>176566.45</v>
       </c>
       <c r="C3" t="n">
         <v>108790.39</v>
       </c>
       <c r="D3" t="n">
-        <v>215796.3899999998</v>
+        <v>215796.39</v>
       </c>
       <c r="E3" t="n">
-        <v>184950.0499999997</v>
+        <v>184950.05</v>
       </c>
       <c r="F3" t="n">
-        <v>342161.6899999992</v>
+        <v>342161.69</v>
       </c>
       <c r="G3" t="n">
-        <v>305396.1999999993</v>
+        <v>305396.2</v>
       </c>
       <c r="H3" t="n">
-        <v>149844.8399999998</v>
+        <v>149844.84</v>
       </c>
       <c r="I3" t="n">
-        <v>548644.9799999979</v>
+        <v>548644.98</v>
       </c>
       <c r="J3" t="n">
-        <v>171330.2499999998</v>
+        <v>171330.25</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>231811.3699999998</v>
+        <v>231811.37</v>
       </c>
       <c r="C4" t="n">
-        <v>154546.2799999998</v>
+        <v>154546.28</v>
       </c>
       <c r="D4" t="n">
-        <v>301063.5499999991</v>
+        <v>301063.55</v>
       </c>
       <c r="E4" t="n">
-        <v>222976.6799999994</v>
+        <v>222976.68</v>
       </c>
       <c r="F4" t="n">
-        <v>429982.3299999995</v>
+        <v>429982.33</v>
       </c>
       <c r="G4" t="n">
-        <v>370198.2199999997</v>
+        <v>370198.22</v>
       </c>
       <c r="H4" t="n">
-        <v>186815.0299999995</v>
+        <v>186815.03</v>
       </c>
       <c r="I4" t="n">
-        <v>692157.309999985</v>
+        <v>692157.3100000001</v>
       </c>
       <c r="J4" t="n">
-        <v>219512.5299999996</v>
+        <v>219512.53</v>
       </c>
     </row>
     <row r="5">
@@ -587,31 +587,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>284454.9199999996</v>
+        <v>284454.92</v>
       </c>
       <c r="C5" t="n">
-        <v>172683.5899999999</v>
+        <v>172683.59</v>
       </c>
       <c r="D5" t="n">
-        <v>353880.1599999995</v>
+        <v>353880.16</v>
       </c>
       <c r="E5" t="n">
-        <v>252840.4699999986</v>
+        <v>252840.47</v>
       </c>
       <c r="F5" t="n">
-        <v>551399.0699999966</v>
+        <v>551399.0699999999</v>
       </c>
       <c r="G5" t="n">
-        <v>446587.7799999992</v>
+        <v>446587.78</v>
       </c>
       <c r="H5" t="n">
-        <v>241128.1099999996</v>
+        <v>241128.11</v>
       </c>
       <c r="I5" t="n">
-        <v>817074.7699999732</v>
+        <v>817074.77</v>
       </c>
       <c r="J5" t="n">
-        <v>276010.2399999987</v>
+        <v>276010.24</v>
       </c>
     </row>
     <row r="6">
@@ -619,31 +619,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>239262.9599999995</v>
+        <v>239262.96</v>
       </c>
       <c r="C6" t="n">
-        <v>160745.2100000001</v>
+        <v>160745.21</v>
       </c>
       <c r="D6" t="n">
-        <v>327687.8799999987</v>
+        <v>327687.88</v>
       </c>
       <c r="E6" t="n">
-        <v>266379.4899999994</v>
+        <v>266379.49</v>
       </c>
       <c r="F6" t="n">
-        <v>499696.8999999994</v>
+        <v>499696.9</v>
       </c>
       <c r="G6" t="n">
-        <v>436418.3499999992</v>
+        <v>436418.35</v>
       </c>
       <c r="H6" t="n">
-        <v>230569.969999999</v>
+        <v>230569.97</v>
       </c>
       <c r="I6" t="n">
-        <v>772319.7499999827</v>
+        <v>772319.75</v>
       </c>
       <c r="J6" t="n">
-        <v>211504.2899999995</v>
+        <v>211504.29</v>
       </c>
     </row>
     <row r="7">
@@ -651,31 +651,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>219395.5099999993</v>
+        <v>219395.51</v>
       </c>
       <c r="C7" t="n">
         <v>143971.2</v>
       </c>
       <c r="D7" t="n">
-        <v>254859.8699999993</v>
+        <v>254859.87</v>
       </c>
       <c r="E7" t="n">
-        <v>188897.6999999999</v>
+        <v>188897.7</v>
       </c>
       <c r="F7" t="n">
-        <v>450254.1500000003</v>
+        <v>450254.15</v>
       </c>
       <c r="G7" t="n">
-        <v>323874.599999999</v>
+        <v>323874.6</v>
       </c>
       <c r="H7" t="n">
-        <v>169579.2399999998</v>
+        <v>169579.24</v>
       </c>
       <c r="I7" t="n">
-        <v>613607.5099999915</v>
+        <v>613607.51</v>
       </c>
       <c r="J7" t="n">
-        <v>213853.5199999999</v>
+        <v>213853.52</v>
       </c>
     </row>
     <row r="8">
@@ -683,31 +683,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>211766.4699999995</v>
+        <v>211766.47</v>
       </c>
       <c r="C8" t="n">
         <v>150301.03</v>
       </c>
       <c r="D8" t="n">
-        <v>291535.1599999996</v>
+        <v>291535.16</v>
       </c>
       <c r="E8" t="n">
-        <v>210310.2299999994</v>
+        <v>210310.23</v>
       </c>
       <c r="F8" t="n">
-        <v>394851.5199999992</v>
+        <v>394851.52</v>
       </c>
       <c r="G8" t="n">
-        <v>355623.7899999989</v>
+        <v>355623.79</v>
       </c>
       <c r="H8" t="n">
-        <v>177011.7899999999</v>
+        <v>177011.79</v>
       </c>
       <c r="I8" t="n">
-        <v>642985.7799999912</v>
+        <v>642985.78</v>
       </c>
       <c r="J8" t="n">
-        <v>212513.9199999994</v>
+        <v>212513.92</v>
       </c>
     </row>
     <row r="9">
@@ -715,31 +715,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>169267.6599999996</v>
+        <v>169267.66</v>
       </c>
       <c r="C9" t="n">
         <v>125713.61</v>
       </c>
       <c r="D9" t="n">
-        <v>240275.2499999989</v>
+        <v>240275.25</v>
       </c>
       <c r="E9" t="n">
-        <v>179763.4599999995</v>
+        <v>179763.46</v>
       </c>
       <c r="F9" t="n">
-        <v>345461.6599999995</v>
+        <v>345461.66</v>
       </c>
       <c r="G9" t="n">
-        <v>303157.8099999996</v>
+        <v>303157.81</v>
       </c>
       <c r="H9" t="n">
-        <v>152289.6900000001</v>
+        <v>152289.69</v>
       </c>
       <c r="I9" t="n">
-        <v>538753.1299999971</v>
+        <v>538753.13</v>
       </c>
       <c r="J9" t="n">
-        <v>189730.0399999997</v>
+        <v>189730.04</v>
       </c>
     </row>
     <row r="10">
@@ -747,31 +747,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>171278.8899999999</v>
+        <v>171278.89</v>
       </c>
       <c r="C10" t="n">
         <v>106610.59</v>
       </c>
       <c r="D10" t="n">
-        <v>247368.7299999995</v>
+        <v>247368.73</v>
       </c>
       <c r="E10" t="n">
-        <v>164215.8499999999</v>
+        <v>164215.85</v>
       </c>
       <c r="F10" t="n">
-        <v>354218.4199999998</v>
+        <v>354218.42</v>
       </c>
       <c r="G10" t="n">
-        <v>301290.7699999994</v>
+        <v>301290.77</v>
       </c>
       <c r="H10" t="n">
         <v>132949.48</v>
       </c>
       <c r="I10" t="n">
-        <v>464529.6499999993</v>
+        <v>464529.65</v>
       </c>
       <c r="J10" t="n">
-        <v>156354.3199999998</v>
+        <v>156354.32</v>
       </c>
     </row>
     <row r="11">
@@ -779,31 +779,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>306642.9899999997</v>
+        <v>306642.99</v>
       </c>
       <c r="C11" t="n">
-        <v>203072.2199999994</v>
+        <v>203072.22</v>
       </c>
       <c r="D11" t="n">
-        <v>367328.3399999994</v>
+        <v>367328.34</v>
       </c>
       <c r="E11" t="n">
-        <v>323732.6099999992</v>
+        <v>323732.61</v>
       </c>
       <c r="F11" t="n">
-        <v>612445.5699999924</v>
+        <v>612445.5699999999</v>
       </c>
       <c r="G11" t="n">
-        <v>486401.3900000003</v>
+        <v>486401.39</v>
       </c>
       <c r="H11" t="n">
-        <v>254172.8099999994</v>
+        <v>254172.81</v>
       </c>
       <c r="I11" t="n">
-        <v>865824.129999969</v>
+        <v>865824.13</v>
       </c>
       <c r="J11" t="n">
-        <v>317263.9899999991</v>
+        <v>317263.99</v>
       </c>
     </row>
     <row r="12">
@@ -811,31 +811,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>275378.7099999993</v>
+        <v>275378.71</v>
       </c>
       <c r="C12" t="n">
-        <v>171283.4799999999</v>
+        <v>171283.48</v>
       </c>
       <c r="D12" t="n">
-        <v>351244.0699999995</v>
+        <v>351244.07</v>
       </c>
       <c r="E12" t="n">
-        <v>248059.1299999993</v>
+        <v>248059.13</v>
       </c>
       <c r="F12" t="n">
-        <v>501022.7100000003</v>
+        <v>501022.71</v>
       </c>
       <c r="G12" t="n">
-        <v>428480.3399999992</v>
+        <v>428480.34</v>
       </c>
       <c r="H12" t="n">
-        <v>207433.8199999995</v>
+        <v>207433.82</v>
       </c>
       <c r="I12" t="n">
-        <v>764307.6299999797</v>
+        <v>764307.63</v>
       </c>
       <c r="J12" t="n">
-        <v>251699.3399999993</v>
+        <v>251699.34</v>
       </c>
     </row>
     <row r="13">
@@ -843,31 +843,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>360509.2699999994</v>
+        <v>360509.27</v>
       </c>
       <c r="C13" t="n">
-        <v>234277.0699999995</v>
+        <v>234277.07</v>
       </c>
       <c r="D13" t="n">
-        <v>510826.0600000001</v>
+        <v>510826.06</v>
       </c>
       <c r="E13" t="n">
-        <v>382384.2299999989</v>
+        <v>382384.23</v>
       </c>
       <c r="F13" t="n">
-        <v>683462.9199999839</v>
+        <v>683462.92</v>
       </c>
       <c r="G13" t="n">
-        <v>647637.5099999896</v>
+        <v>647637.51</v>
       </c>
       <c r="H13" t="n">
-        <v>303863.2599999997</v>
+        <v>303863.26</v>
       </c>
       <c r="I13" t="n">
-        <v>1108895.819999953</v>
+        <v>1108895.82</v>
       </c>
       <c r="J13" t="n">
-        <v>387440.9799999995</v>
+        <v>387440.98</v>
       </c>
     </row>
   </sheetData>
